--- a/tp.xlsx
+++ b/tp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>ABM</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -474,9 +474,7 @@
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">

--- a/tp.xlsx
+++ b/tp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>ABM</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>obs</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>Interfaz</t>
+  </si>
+  <si>
+    <t>Inscripcion</t>
+  </si>
+  <si>
+    <t>Competencia</t>
+  </si>
+  <si>
+    <t>NadadoresXEspe</t>
+  </si>
+  <si>
+    <t>ProfeXClub</t>
+  </si>
+  <si>
+    <t>ProfeXEspe</t>
+  </si>
+  <si>
+    <t>RealizTorneo</t>
+  </si>
+  <si>
+    <t>Registrar Resultado</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>faltan corregir un par de errores</t>
+  </si>
+  <si>
+    <t>Corregir Cascade</t>
   </si>
 </sst>
 </file>
@@ -81,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -89,13 +125,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -392,114 +553,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="10" spans="1:4">
+      <c r="A10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A18" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tp.xlsx
+++ b/tp.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Github proyectos\PAV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>ABM</t>
   </si>
@@ -99,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,11 +270,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -311,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +391,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,14 +567,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
@@ -567,7 +582,7 @@
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -593,7 +608,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -605,7 +620,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -617,7 +632,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -629,7 +644,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -641,7 +656,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -655,7 +670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -667,8 +682,8 @@
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="10" spans="1:4">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>14</v>
       </c>
@@ -682,7 +697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>25</v>
       </c>
@@ -690,7 +705,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>16</v>
       </c>
@@ -698,7 +713,7 @@
       <c r="C12" s="16"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>17</v>
       </c>
@@ -712,7 +727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
@@ -720,15 +735,19 @@
       <c r="C14" s="16"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
@@ -736,15 +755,19 @@
       <c r="C16" s="16"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>21</v>
       </c>
@@ -756,7 +779,7 @@
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -768,24 +791,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
